--- a/SCBAA/2016/Region 7.xlsx
+++ b/SCBAA/2016/Region 7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2016\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C0A7B0-C9B1-4E27-A588-2ADE3B0606C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E23E9E-A8AF-4652-8A78-F2773751F49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12225" yWindow="0" windowWidth="14880" windowHeight="11070" xr2:uid="{7921BEA8-42FC-47CE-815C-9397867DBDF5}"/>
+    <workbookView xWindow="3180" yWindow="1005" windowWidth="14880" windowHeight="11070" firstSheet="4" activeTab="8" xr2:uid="{7921BEA8-42FC-47CE-815C-9397867DBDF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Bogo" sheetId="1" r:id="rId1"/>
@@ -596,7 +596,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -695,6 +695,9 @@
     <xf numFmtId="4" fontId="21" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="4" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="4" fontId="10" fillId="0" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1031,8 +1034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C134ED8B-90F6-4F1C-99B0-2AA0F1F14A11}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="G103" sqref="G103"/>
+    <sheetView topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="F114" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,54 +1048,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
@@ -1106,22 +1109,22 @@
       <c r="I5" s="17"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="56" t="s">
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="57" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="57"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="58"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
@@ -1157,7 +1160,6 @@
         <v>56</v>
       </c>
       <c r="E11" s="22">
-        <f>6461413.1+7161112.03-792037.79</f>
         <v>12830487.34</v>
       </c>
     </row>
@@ -1180,7 +1182,6 @@
         <v>54</v>
       </c>
       <c r="E13" s="23">
-        <f>1798113.85+836143.39</f>
         <v>2634257.2400000002</v>
       </c>
     </row>
@@ -1192,7 +1193,6 @@
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="13">
-        <f>SUM(E11:E13)</f>
         <v>31249783.210000001</v>
       </c>
     </row>
@@ -1230,12 +1230,11 @@
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
-      <c r="C18" s="24"/>
+      <c r="C18" s="54"/>
       <c r="D18" s="18" t="s">
         <v>49</v>
       </c>
       <c r="E18" s="23">
-        <f>2349605.01+12443.39+70349.37</f>
         <v>2432397.77</v>
       </c>
     </row>
@@ -1247,7 +1246,6 @@
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="13">
-        <f>SUM(E16:E18)</f>
         <v>36548562.990000002</v>
       </c>
     </row>
@@ -1438,7 +1436,6 @@
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
       <c r="E37" s="13">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>394035622.60000002</v>
       </c>
     </row>
@@ -1537,7 +1534,6 @@
         <v>25</v>
       </c>
       <c r="E47" s="22">
-        <f>2554601.61</f>
         <v>2554601.61</v>
       </c>
     </row>
@@ -2016,7 +2012,6 @@
       </c>
       <c r="D93" s="18"/>
       <c r="E93" s="8">
-        <f>SUM(E41:E92)</f>
         <v>327746341.11000001</v>
       </c>
     </row>
@@ -2192,7 +2187,6 @@
         <v>1</v>
       </c>
       <c r="E111" s="2">
-        <f>SUM(E96,E100,E102,E104,E106,E108,E110)</f>
         <v>3660127</v>
       </c>
     </row>
@@ -2204,7 +2198,6 @@
       <c r="C112" s="34"/>
       <c r="D112" s="34"/>
       <c r="E112" s="1">
-        <f>SUM(E93,E111)</f>
         <v>331406468.11000001</v>
       </c>
     </row>
@@ -2239,54 +2232,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
@@ -2300,22 +2293,22 @@
       <c r="I5" s="17"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="56" t="s">
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="57" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="57"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="58"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
@@ -3416,7 +3409,7 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:I3"/>
+      <selection activeCell="F34" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3429,54 +3422,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
@@ -3490,22 +3483,22 @@
       <c r="I5" s="17"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="56" t="s">
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="57" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="57"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="58"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
@@ -3541,7 +3534,6 @@
         <v>56</v>
       </c>
       <c r="E11" s="35">
-        <f>2486600.08+4213916.67</f>
         <v>6700516.75</v>
       </c>
     </row>
@@ -3575,7 +3567,6 @@
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="13">
-        <f>SUM(E11:E13)</f>
         <v>50765648.020000003</v>
       </c>
     </row>
@@ -3607,14 +3598,13 @@
         <v>50</v>
       </c>
       <c r="E17" s="35">
-        <f>18669760.23</f>
         <v>18669760.23</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
-      <c r="C18" s="24"/>
+      <c r="C18" s="54"/>
       <c r="D18" s="18" t="s">
         <v>49</v>
       </c>
@@ -3630,7 +3620,6 @@
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="13">
-        <f>SUM(E16:E18)</f>
         <v>29327397.059999999</v>
       </c>
     </row>
@@ -3821,7 +3810,6 @@
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
       <c r="E37" s="13">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>572800707.53999996</v>
       </c>
     </row>
@@ -3920,7 +3908,6 @@
         <v>25</v>
       </c>
       <c r="E47" s="35">
-        <f>10577904.39+4352691.01</f>
         <v>14930595.4</v>
       </c>
     </row>
@@ -4399,7 +4386,6 @@
       </c>
       <c r="D93" s="18"/>
       <c r="E93" s="8">
-        <f>SUM(E41:E92)</f>
         <v>227301589.11000004</v>
       </c>
     </row>
@@ -4457,7 +4443,6 @@
         <v>2</v>
       </c>
       <c r="E98" s="35">
-        <f>3241196.86</f>
         <v>3241196.86</v>
       </c>
     </row>
@@ -4576,7 +4561,6 @@
         <v>1</v>
       </c>
       <c r="E111" s="2">
-        <f>SUM(E96,E98,E100,E102,E104,E106,E108,E110)</f>
         <v>290780335.16000003</v>
       </c>
     </row>
@@ -4588,7 +4572,6 @@
       <c r="C112" s="34"/>
       <c r="D112" s="34"/>
       <c r="E112" s="1">
-        <f>SUM(E93,E111)</f>
         <v>518081924.2700001</v>
       </c>
     </row>
@@ -4623,54 +4606,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
@@ -4684,22 +4667,22 @@
       <c r="I5" s="17"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="56" t="s">
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="57" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="57"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="58"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
@@ -5813,54 +5796,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
@@ -5874,22 +5857,22 @@
       <c r="I5" s="17"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="56" t="s">
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="57" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="57"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="58"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
@@ -7003,54 +6986,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
@@ -7064,22 +7047,22 @@
       <c r="I5" s="17"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="56" t="s">
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="57" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="57"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="58"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
@@ -8193,54 +8176,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
@@ -8254,22 +8237,22 @@
       <c r="I5" s="17"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="56" t="s">
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="57" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="57"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="58"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
@@ -9383,54 +9366,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
@@ -9444,22 +9427,22 @@
       <c r="I5" s="17"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="56" t="s">
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="57" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="57"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="58"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
@@ -10560,7 +10543,7 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+      <selection activeCell="F28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10573,54 +10556,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
@@ -10634,22 +10617,22 @@
       <c r="I5" s="17"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="56" t="s">
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="57" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="57"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="58"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
@@ -10718,7 +10701,6 @@
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="13">
-        <f>SUM(E11:E13)</f>
         <v>247504717.38999999</v>
       </c>
     </row>
@@ -10750,14 +10732,13 @@
         <v>50</v>
       </c>
       <c r="E17" s="46">
-        <f>64495065.18+43154194.56</f>
         <v>107649259.74000001</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
-      <c r="C18" s="24"/>
+      <c r="C18" s="54"/>
       <c r="D18" s="18" t="s">
         <v>49</v>
       </c>
@@ -10773,7 +10754,6 @@
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="13">
-        <f>SUM(E16:E18)</f>
         <v>242413480.5</v>
       </c>
     </row>
@@ -10964,7 +10944,6 @@
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
       <c r="E37" s="13">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>820950981.28999996</v>
       </c>
     </row>
@@ -11541,7 +11520,6 @@
       </c>
       <c r="D93" s="18"/>
       <c r="E93" s="8">
-        <f>SUM(E41:E92)</f>
         <v>506136890.55000001</v>
       </c>
     </row>
@@ -11708,7 +11686,6 @@
         <v>2</v>
       </c>
       <c r="E110" s="49">
-        <f>25222546.66+12785000</f>
         <v>38007546.659999996</v>
       </c>
       <c r="F110" s="30"/>
@@ -11718,7 +11695,6 @@
         <v>1</v>
       </c>
       <c r="E111" s="2">
-        <f>SUM(E96,E98,E100,E102,E104,E106,E108,E110)</f>
         <v>61508151.659999996</v>
       </c>
     </row>
@@ -11730,7 +11706,6 @@
       <c r="C112" s="34"/>
       <c r="D112" s="34"/>
       <c r="E112" s="1">
-        <f>SUM(E93,E111)</f>
         <v>567645042.21000004</v>
       </c>
     </row>
@@ -11744,6 +11719,7 @@
     <mergeCell ref="E6:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11751,8 +11727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB37ED16-7A1C-4DFD-B26B-C266D72513C9}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11765,54 +11741,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
@@ -11826,22 +11802,22 @@
       <c r="I5" s="17"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="56" t="s">
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="57" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="57"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="58"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
@@ -11877,7 +11853,6 @@
         <v>56</v>
       </c>
       <c r="E11" s="47">
-        <f>48243825.52+50806888.76</f>
         <v>99050714.280000001</v>
       </c>
     </row>
@@ -11911,7 +11886,6 @@
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="13">
-        <f>SUM(E11:E13)</f>
         <v>211647218.00999999</v>
       </c>
     </row>
@@ -11949,7 +11923,7 @@
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
-      <c r="C18" s="24"/>
+      <c r="C18" s="54"/>
       <c r="D18" s="18" t="s">
         <v>49</v>
       </c>
@@ -11965,7 +11939,6 @@
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="13">
-        <f>SUM(E16:E18)</f>
         <v>63450577.239999995</v>
       </c>
     </row>
@@ -12156,7 +12129,6 @@
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
       <c r="E37" s="13">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>735482888.30999994</v>
       </c>
     </row>
@@ -12255,7 +12227,6 @@
         <v>25</v>
       </c>
       <c r="E47" s="47">
-        <f>19779333.5+7779579.65</f>
         <v>27558913.149999999</v>
       </c>
     </row>
@@ -12734,7 +12705,6 @@
       </c>
       <c r="D93" s="18"/>
       <c r="E93" s="8">
-        <f>SUM(E41:E92)</f>
         <v>555221872.70999992</v>
       </c>
     </row>
@@ -12910,7 +12880,6 @@
         <v>1</v>
       </c>
       <c r="E111" s="2">
-        <f>SUM(E96,E98,E100,E102,E104,E106,E108,E110)</f>
         <v>0</v>
       </c>
     </row>
@@ -12922,7 +12891,6 @@
       <c r="C112" s="34"/>
       <c r="D112" s="34"/>
       <c r="E112" s="1">
-        <f>SUM(E93,E111)</f>
         <v>555221872.70999992</v>
       </c>
     </row>
